--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -147,10 +147,6 @@
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.  
 健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床的概念(clinical concept)。</t>
-  </si>
-  <si>
-    <t>con-3:verificationStatus」が「entered-in-error」でなく、「category」が「problem-list-item」である場合、「condition.clinicalStatus」が存在している必要があります。 {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:もし状態が軽減された場合、臨床状態は不活動、解決、または寛解でなければなりません。 {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:verificationStatusがentered-in-errorである場合、condition.clinicalStatusは存在してはなりません。 {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1450,19 +1446,19 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="AN1" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>38</v>
@@ -1473,10 +1469,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1487,28 +1483,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1558,13 +1554,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1593,10 +1589,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1607,25 +1603,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1676,19 +1672,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1711,10 +1707,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1725,28 +1721,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1796,19 +1792,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1831,10 +1827,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1845,7 +1841,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1857,16 +1853,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1892,43 +1888,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1951,21 +1947,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1977,16 +1973,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2036,31 +2032,31 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN6" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN6" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>38</v>
@@ -2071,14 +2067,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2097,16 +2093,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2156,7 +2152,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2180,7 +2176,7 @@
         <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>38</v>
@@ -2191,14 +2187,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2217,16 +2213,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2276,7 +2272,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2288,7 +2284,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2300,7 +2296,7 @@
         <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>38</v>
@@ -2311,14 +2307,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2331,25 +2327,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2398,7 +2394,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2410,7 +2406,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2422,7 +2418,7 @@
         <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>38</v>
@@ -2433,10 +2429,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2456,22 +2452,22 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2520,7 +2516,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2532,22 +2528,22 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AL10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN10" t="s" s="2">
+      <c r="AO10" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>38</v>
@@ -2555,10 +2551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2569,28 +2565,28 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2616,58 +2612,58 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AA11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI11" t="s" s="2">
+      <c r="AJ11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>38</v>
@@ -2675,10 +2671,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2689,28 +2685,28 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2736,69 +2732,69 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="Z12" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI12" t="s" s="2">
+      <c r="AJ12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AP12" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2821,16 +2817,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2856,14 +2852,14 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="Z13" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
       </c>
@@ -2880,7 +2876,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -2892,22 +2888,22 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>38</v>
@@ -2915,10 +2911,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2929,7 +2925,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -2941,16 +2937,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2976,100 +2972,100 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AO14" t="s" s="2">
+      <c r="AP14" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3094,69 +3090,69 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3176,19 +3172,19 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3214,14 +3210,14 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
       </c>
@@ -3238,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3250,66 +3246,66 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AM16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AP16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3358,34 +3354,34 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>38</v>
@@ -3393,10 +3389,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3407,28 +3403,28 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3478,34 +3474,34 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>38</v>
@@ -3513,10 +3509,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3527,28 +3523,28 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3598,34 +3594,34 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>38</v>
@@ -3633,10 +3629,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3647,7 +3643,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3659,16 +3655,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3718,34 +3714,34 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>38</v>
@@ -3753,10 +3749,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3767,25 +3763,25 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3836,19 +3832,19 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -3857,13 +3853,13 @@
         <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>38</v>
@@ -3871,10 +3867,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3885,25 +3881,25 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3954,19 +3950,19 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3978,10 +3974,10 @@
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>38</v>
@@ -3989,10 +3985,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4003,25 +3999,25 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4072,19 +4068,19 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -4093,13 +4089,13 @@
         <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>38</v>
@@ -4107,10 +4103,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4133,13 +4129,13 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4190,7 +4186,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4202,19 +4198,19 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>38</v>
@@ -4225,10 +4221,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4239,7 +4235,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4251,13 +4247,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4308,31 +4304,31 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>38</v>
@@ -4343,14 +4339,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4369,16 +4365,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4428,7 +4424,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4440,7 +4436,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -4452,7 +4448,7 @@
         <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>38</v>
@@ -4463,14 +4459,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4483,25 +4479,25 @@
         <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="N27" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4550,7 +4546,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4562,7 +4558,7 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -4574,7 +4570,7 @@
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -4585,10 +4581,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4599,7 +4595,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4611,13 +4607,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4644,55 +4640,55 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI28" t="s" s="2">
+      <c r="AJ28" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="AM28" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -4703,10 +4699,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4729,13 +4725,13 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4786,7 +4782,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4795,10 +4791,10 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -4810,7 +4806,7 @@
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -4821,10 +4817,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4835,7 +4831,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4847,13 +4843,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4880,55 +4876,55 @@
         <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -4939,10 +4935,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4965,16 +4961,16 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5024,7 +5020,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5036,19 +5032,19 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5059,10 +5055,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5073,7 +5069,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5085,13 +5081,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5142,31 +5138,31 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5177,14 +5173,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5203,16 +5199,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5262,7 +5258,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5274,7 +5270,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5286,7 +5282,7 @@
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>38</v>
@@ -5297,14 +5293,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5317,25 +5313,25 @@
         <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="N34" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5384,7 +5380,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5396,7 +5392,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -5408,7 +5404,7 @@
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>38</v>
@@ -5419,10 +5415,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5442,16 +5438,16 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5478,14 +5474,14 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
       </c>
@@ -5502,7 +5498,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5511,25 +5507,25 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>38</v>
@@ -5537,10 +5533,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5560,16 +5556,16 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5620,7 +5616,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5629,10 +5625,10 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -5644,10 +5640,10 @@
         <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>38</v>
@@ -5655,10 +5651,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5681,13 +5677,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5738,7 +5734,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5750,19 +5746,19 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
